--- a/output/google_maps_data.xlsx
+++ b/output/google_maps_data.xlsx
@@ -456,54 +456,115 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TATA STARBUCKS COFFEE</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Address: 55 Dalston Ln, London E8 2NG, United Kingdom</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Address: UKN, Miraya Rose, HAL Old Airport Rd, Palm Meadows, Siddapura, Whitefield, Bengaluru, Karnataka 560066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.3
+(1.9T)</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Third Wave Coffee</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Address: 4 St Thomas' Dr, Orpington BR5 1HF, United Kingdom</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>Address: Plot No 207, Varthur Main Rd, Palm Meadows, Ramagondanahalli, Whitefield, Bengaluru, Karnataka 560066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.6
+(595)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Phone: 080957 99985</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bangalore Cafe</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Address: 5 Upper St Martin's Ln, London WC2H 9EA, United Kingdom</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>Address: XP55+HQF, Spice Garden Layout Rd, Lakshminarayana Pura, AECS Layout, Marathahalli, Bengaluru, Karnataka 560037</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4.4
+(140)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Phone: 080501 15115</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Third Wave Coffee</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Address: 27 Monmouth St, London WC2H 9EU, United Kingdom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>Address: NO 6, Indiqube Edge, Ground Floor NO 571/630/6/4, SY, 4, Outer Ring Rd, Ambalipura, Bellandur, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.5
+(1.8T)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Phone: 076193 73947</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Third Wave Coffee</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Address: 114 Queen Victoria St, London EC4V 4BJ, United Kingdom</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>Address: 729, Chinmaya Mission Hospital Rd, Indira Nagar 1st Stage, Stage 1, Indiranagar, Bengaluru, Karnataka 560038</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.4
+(3.5T)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Phone: 073376 86222</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
